--- a/data/vacancies.xlsx
+++ b/data/vacancies.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,8 +49,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,86 +426,86 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>96701933</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Data Engineer/Дата Инженер/Инженер Данных</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>https://hh.ru/vacancy/96701933</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>От 230000 до 270000 RUR</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>2024-04-11T11:28:36+0300</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Платформа Больших Данных</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Удаленная работа</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Полная занятость</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>От 1 года до 3 лет</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Необходимые навыки: ∙ Отличное знание Python. ∙ Опыт работы c Spark, Hadoop, Hive. ∙ Отличное знание SQL. ∙ Понимание и интерес к области больших...</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Вакансия</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Зарплата</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Дата публикации</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Адрес</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Компания</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>График работы</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Тип занятости</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Опыт работы</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Требования</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>96634879</t>
+          <t>96291009</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Middle Product Analyst</t>
+          <t>CTO (AR/AI)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/96634879</t>
+          <t>https://hh.ru/vacancy/96291009</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>От 230000 RUR</t>
+          <t>От 800000 до 1200000 RUR</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024-04-10T16:05:42+0300</t>
+          <t>2024-04-11T21:04:30+0300</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -511,12 +515,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>L’etoile Digital</t>
+          <t>Сенсориум Корпорейшн Москва</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Удаленная работа</t>
+          <t>Полный день</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -526,39 +530,39 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>От 1 года до 3 лет</t>
+          <t>От 3 до 6 лет</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Опыт анализа реальных данных на Python. Опыт практического проведение и запуска A/B тестов. Опыт работы с одной с BI...</t>
+          <t>Управление продуктовым портфелем и разработка стратегии продукта. Знание и понимание современных технологий разработки в сфере AR и AI, а также...</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>96256465</t>
+          <t>95996741</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Middle Python developer (FastAPI)</t>
+          <t>Senior Data Engineer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/96256465</t>
+          <t>https://hh.ru/vacancy/95996741</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>От 180000 до 250000 RUR</t>
+          <t>От 400000 RUR</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024-04-11T12:24:30+0300</t>
+          <t>2024-04-11T14:29:59+0300</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -568,12 +572,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Секьюр-Ти</t>
+          <t>Лаборатория Маркетинга</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Удаленная работа</t>
+          <t>Полный день</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -583,39 +587,39 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>От 1 года до 3 лет</t>
+          <t>От 3 до 6 лет</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Отличное знание Python 3. Опыт разработки на фреймворке FastAPI. Опыт работы с SQLAlchemy. Опыт работы с asyncio. Опыт работы с...</t>
+          <t>...Spark, Python, SQL. Оценка и знание сложностей и оценок алгоритмов. Понимание и оценка качества данных. Опыт в создании и разработке...</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>95473687</t>
+          <t>96284382</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Machine Learning Инженер</t>
+          <t>Архитектор / Руководитель разработки / Team Lead</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/95473687</t>
+          <t>https://hh.ru/vacancy/96284382</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>От 130000 до 300000 RUR</t>
+          <t>От 350000 RUR</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024-03-25T19:06:10+0300</t>
+          <t>2024-04-05T17:55:11+0300</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -625,12 +629,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Сошал Системс</t>
+          <t>Incona Engineering Group</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Удаленная работа</t>
+          <t>Полный день</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -640,39 +644,39 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>От 1 года до 3 лет</t>
+          <t>Более 6 лет</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Опыт написания продакшен-кода на Python, включая ООП, юнит-тесты, системы контроля версий. Умение работать с библиотеками для анализа данных...</t>
+          <t xml:space="preserve">...компании, занимающейся разработкой или поддержкой веб-решений, на позиции архитектора, ведущего разработчика или руководителя разработки. Полного цикла разработки ПО. </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>96490334</t>
+          <t>96458318</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BI-разработчик</t>
+          <t>Разработчик С++</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/96490334</t>
+          <t>https://hh.ru/vacancy/96458318</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>От 110000 до 160000 RUR</t>
+          <t>От 300000 RUR</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024-04-12T08:51:02+0300</t>
+          <t>2024-04-08T20:03:21+0300</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -682,12 +686,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>ТехАудит</t>
+          <t>Лаборатория Современных Цифровых Технологий</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Удаленная работа</t>
+          <t>Полный день</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -702,34 +706,34 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Технологии и навыки, владение которыми будем плюсом: Опыт разработки дашбордов в Apache Superset. Знание диалектов и процедурных языков PostgreSQL, MS...</t>
+          <t xml:space="preserve">знания в области многопоточных вычислений в Linux (libpthread, примитивы синхронизации). - знания в области python pyunit и cmake, git, gitlab. - </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>95865067</t>
+          <t>96604953</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Младший Data-инженер</t>
+          <t>Web разработчик</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/95865067</t>
+          <t>https://hh.ru/vacancy/96604953</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>От 103000 RUR</t>
+          <t>От 300000 до 400000 RUR</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024-04-01T10:26:21+0300</t>
+          <t>2024-04-10T11:29:00+0300</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -739,12 +743,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>АНО Университет Национальной Технологической Инициативы 2035</t>
+          <t>ГК АВТОРУСЬ</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Удаленная работа</t>
+          <t>Полный день</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -759,34 +763,34 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>...владеете Python. У вас есть знание и опыт работы с библиотеками Python для получения/анализа/визуализации данных, а также разработки...</t>
+          <t xml:space="preserve">Иметь опыт работы с брокерами сообщений (RabbitMQ). Иметь опыт разработки долгоживущих PHP приложений (Swoole, Roadrunner). Знание и понимание микросервисной архитектуры. </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>95540040</t>
+          <t>96647339</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Аналитик блокчейна и DEX / Инженер по тестированию</t>
+          <t>Разработчик С++</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/95540040</t>
+          <t>https://hh.ru/vacancy/96647339</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>От 100000 до 200000 RUR</t>
+          <t>От 300000 RUR</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024-03-26T13:55:34+0300</t>
+          <t>2024-04-10T18:48:35+0300</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -796,12 +800,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Сошал Системс</t>
+          <t>Лаборатория Современных Цифровых Технологий</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Удаленная работа</t>
+          <t>Полный день</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -816,34 +820,34 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Опыт работы в области анализа данных, блокчейна и DEX. Знание принципов и методов тестирования, в том числе автоматического. </t>
+          <t xml:space="preserve">знания в области многопоточных вычислений в Linux (libpthread, примитивы синхронизации). - знания в области python pyunit и cmake, git, gitlab. - </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>95616891</t>
+          <t>96647356</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Системный аналитик Python/SQL</t>
+          <t>Разработчик С++</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/95616891</t>
+          <t>https://hh.ru/vacancy/96647356</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>От 100000 RUR</t>
+          <t>От 300000 RUR</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024-03-27T13:30:27+0300</t>
+          <t>2024-04-10T18:49:24+0300</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -853,12 +857,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Digital Strategy</t>
+          <t>Лаборатория Современных Цифровых Технологий</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Удаленная работа</t>
+          <t>Полный день</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -873,34 +877,34 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Понимание принципов архитектуры баз и хранилищ данных. —Знание библиотек Python, необходимых для работы с данными (numpy, pandas) и создания витрин...</t>
+          <t xml:space="preserve">знания в области многопоточных вычислений в Linux (libpthread, примитивы синхронизации). - знания в области python pyunit и cmake, git, gitlab. - </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>95471235</t>
+          <t>95883669</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Backend разработчик Python+Django (удаленно)</t>
+          <t>Руководитель отдела аналитики</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/95471235</t>
+          <t>https://hh.ru/vacancy/95883669</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>От 80000 RUR</t>
+          <t>От 300000 RUR</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024-03-25T18:24:36+0300</t>
+          <t>2024-04-10T13:00:26+0300</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -910,12 +914,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>NOVA</t>
+          <t>Киприно, Производственный холдинг</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Удаленная работа</t>
+          <t>Полный день</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -925,39 +929,39 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>От 1 года до 3 лет</t>
+          <t>От 3 до 6 лет</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Успешное выполнение тестового задания. Python + Django на уровне не ниже Middle. Celery. Redis. Docker. CI/CD, желательно на базе...</t>
+          <t>Желателен опыт работы с Python / R. - Знание основ категорийного менеджмента в продуктовом ритейле. - Сильные логические, аналитические навыки. - Опыт самостоятельной реализации...</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>94755858</t>
+          <t>95850954</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Python-разработчик (инженер-программист)</t>
+          <t>Руководитель проекта в Дирекцию моделирования добычи нефти и газа</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/94755858</t>
+          <t>https://hh.ru/vacancy/95850954</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>От 70000 до 100000 RUR</t>
+          <t>От 250000 RUR</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024-03-14T12:24:59+0300</t>
+          <t>2024-04-10T07:22:33+0300</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -967,12 +971,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>ФГКУ Главный Центр Информационных Технологий Войск Национальной Гвардии Российской Федерации</t>
+          <t>Центр эксплуатационных услуг</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Удаленная работа</t>
+          <t>Полный день</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -982,39 +986,39 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>От 1 года до 3 лет</t>
+          <t>От 3 до 6 лет</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Разработка веб-приложений с применением базовых шаблонов проектирования (MVC) с использованием языка программирования Python 3.5 (и выше). </t>
+          <t>Знание законодательства в сфере добычи нефти и газа. Опыт подготовки аналитических материалов. Продвинутое владение MS Excel, VBA/Python будет плюсом.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>95437130</t>
+          <t>94774782</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Python разработчик</t>
+          <t>DevOps инженер</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/95437130</t>
+          <t>https://hh.ru/vacancy/94774782</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>От 60000 до 110000 RUR</t>
+          <t>От 250000 RUR</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024-03-25T13:01:23+0300</t>
+          <t>2024-03-14T16:12:11+0300</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1024,12 +1028,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Гальченко Тимофей Валерьевич</t>
+          <t>НТехЛаб</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Удаленная работа</t>
+          <t>Полный день</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1039,39 +1043,39 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>От 1 года до 3 лет</t>
+          <t>От 3 до 6 лет</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1) 1.5+ год опыта работы в качестве бэкенд-разработчика (Python). 2) Опыт в разработке чат-ботов на aiogram...</t>
+          <t>Знание устройства механизмов современной контейнеризации: как и какие механизмы ядра linux используются, как этими механизмами пользуется kubernetes. Практический опыт управления...</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>96441537</t>
+          <t>95570259</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Machine learning Engineer</t>
+          <t>Python-разработчик</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/96441537</t>
+          <t>https://hh.ru/vacancy/95570259</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>От 40000 RUR</t>
+          <t>От 250000 RUR</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024-04-11T16:00:13+0300</t>
+          <t>2024-03-26T19:32:09+0300</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1081,12 +1085,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Инфотек</t>
+          <t>Далее</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Удаленная работа</t>
+          <t>Полный день</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1096,39 +1100,39 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>От 1 года до 3 лет</t>
+          <t>От 3 до 6 лет</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>проектные данные. - математическое образование. - владения linux.</t>
+          <t xml:space="preserve">Желание изучать новые технологии и подходы к разработке. Понимание принципов разработки масштабируемых и высокопроизводительных сервисов. Опыт деплоя нейронных сетей. </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>94803188</t>
+          <t>95636650</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Стажер-разработчик Python</t>
+          <t>Инженер по ИБ</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/94803188</t>
+          <t>https://hh.ru/vacancy/95636650</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>не указана</t>
+          <t>От 250000 RUR</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024-03-15T09:16:34+0300</t>
+          <t>2024-04-11T15:54:39+0300</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1138,54 +1142,54 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Printum</t>
+          <t>МГТС</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Удаленная работа</t>
+          <t>Полный день</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Стажировка</t>
+          <t>Полная занятость</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>От 1 года до 3 лет</t>
+          <t>От 3 до 6 лет</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>...опыт разработки на Python (желательно - Django) и желание много учиться и работать, откликайтесь на эту вакансию. Опыт разработки на Python...</t>
+          <t>Ты знаешь методы обеспечения безопасности ПД, КИИ. Ты обладаешь опытом в разработке нормативной документации по ИБ (политики, регламенты, инструкции и...</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>94811640</t>
+          <t>96630485</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Python Developer (remote)</t>
+          <t>QA Team lead</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/94811640</t>
+          <t>https://hh.ru/vacancy/96630485</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>не указана</t>
+          <t>От 250000 RUR</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024-03-15T10:55:12+0300</t>
+          <t>2024-04-10T15:25:28+0300</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1195,12 +1199,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Brandquad</t>
+          <t>Кадровое агентство BWG</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Удаленная работа</t>
+          <t>Полный день</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1210,39 +1214,39 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>От 1 года до 3 лет</t>
+          <t>От 3 до 6 лет</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нацеленность на результат, нестандартный подход к задачам, аналитический склад ума. Опыт программирования на Python. Знание любого web фреймворка. </t>
+          <t>Актуальный опыт работы в QA. Опыт управления командой от 2-х лет. Опыт программирования на любом языке – не обязательно коммерческий...</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>93888092</t>
+          <t>96799665</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Python developer (remote)</t>
+          <t>Инженер по виртуализации VMware</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/93888092</t>
+          <t>https://hh.ru/vacancy/96799665</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>не указана</t>
+          <t>От 250000 до 380000 RUR</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2024-03-28T17:05:44+0300</t>
+          <t>2024-04-12T11:13:21+0300</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1252,12 +1256,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Анлимитед Продакшен</t>
+          <t>DreamTeam</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Удаленная работа</t>
+          <t>Полный день</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1272,34 +1276,34 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Опыт разработки на python 3 от 1.5-го года. Практический опыт разработки в команде от 1-го года с...</t>
+          <t xml:space="preserve">Релевантный опыт от 5 лет. Опыт работы с NSX Manager (идеально: последняя версия NSX-T). Владение Cloud Director. </t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>95976652</t>
+          <t>90353749</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Специалист по тестированию / QA Engineer (удаленно)</t>
+          <t>DevOps Engineer (офис - гибрид)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/95976652</t>
+          <t>https://hh.ru/vacancy/90353749</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>до 140000 RUR</t>
+          <t>От 250000 до 450000 RUR</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2024-04-02T11:47:47+0300</t>
+          <t>2024-03-18T11:36:08+0300</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1309,12 +1313,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>НТЦ ЕЭС Информационные Комплексы</t>
+          <t>Кадровое агентство BWG</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Удаленная работа</t>
+          <t>Полный день</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1329,34 +1333,34 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Будет плюсом: — Опыт тестирования требований. — Опыт написания автотестов на Python (наш стек: PyTest + Playwright). — Опыт работы с базами данных...</t>
+          <t>Опыт работы от 1 года. Опыт с Gitlab CI. Опыт администрирования. PostgreSQL, Redis, nginx. Владение bash или python для написания...</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>96751373</t>
+          <t>96196157</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Разработчик Python/С++</t>
+          <t>Разработчик C++ (Middle)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/96751373</t>
+          <t>https://hh.ru/vacancy/96196157</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>не указана</t>
+          <t>От 220000 RUR</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2024-04-11T19:11:18+0300</t>
+          <t>2024-04-04T15:52:18+0300</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1366,12 +1370,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Russian Quantum Center</t>
+          <t>НТехЛаб</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Удаленная работа</t>
+          <t>Полный день</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1386,34 +1390,34 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Задачи искусственного интеллекта и больших данных. Опыт коммерческой разработки Python. Отличная математическая и физическая базы. Опыт решения задач дискретной оптимизации. </t>
+          <t>...алгоритмов компьютерного зрения. Опыт работы с TensorRT и OpenVINO, CUDA, OpenCV. Знание Python. Хорошее знание Linux. Опыт работы с Docker.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>94848924</t>
+          <t>90777119</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Инженер по тестированию</t>
+          <t>Middle Backend Разработчик (Python)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/94848924</t>
+          <t>https://hh.ru/vacancy/90777119</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>не указана</t>
+          <t>От 220000 до 250000 RUR</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2024-04-12T15:54:51+0300</t>
+          <t>2024-04-08T09:23:03+0300</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1423,12 +1427,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>РАСЧЕТНЫЕ РЕШЕНИЯ</t>
+          <t>Inline Telecom Solutions</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Удаленная работа</t>
+          <t>Полный день</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1443,34 +1447,34 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Знание теории тестирования, жизненного цикла разработки ПО. Опыт работы в тестировании от 1 года. Уверенное знание SQL на уровне написания...</t>
+          <t>Опыт коммерческой разработки на Python от 3 лет. Опыт проектирования, разработки и внедрения серверных приложений. Понимание устройства основных сетевых протоколов...</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>88580480</t>
+          <t>96193811</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Python разработчик</t>
+          <t>Ведущий разработчик баз данных</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/88580480</t>
+          <t>https://hh.ru/vacancy/96193811</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>не указана</t>
+          <t>От 200000 до 250000 RUR</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2024-04-12T12:44:26+0300</t>
+          <t>2024-04-04T15:32:36+0300</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1480,12 +1484,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Домклик</t>
+          <t>ФАНУ Востокгосплан</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Удаленная работа</t>
+          <t>Полный день</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1495,39 +1499,39 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>От 1 года до 3 лет</t>
+          <t>От 3 до 6 лет</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Имеете опыт разработки на Python 3.X. Понимаете механику языка Python и сопутствующих инструментов (pytest, mypy, poetry, flake8). </t>
+          <t>Знания и опыт работы с Yandex Database. Знание и опыт применения Python для сбора, загрузки и обработки данных.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>95452912</t>
+          <t>95974823</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Backend-разработчик Go (переход с других языков программирования)</t>
+          <t>Python-разработчик (Backend)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/95452912</t>
+          <t>https://hh.ru/vacancy/95974823</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>не указана</t>
+          <t>От 200000 RUR</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2024-03-25T15:19:20+0300</t>
+          <t>2024-04-11T11:32:18+0300</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1537,12 +1541,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Avanpost</t>
+          <t>Корпорация ЗНАК</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Удаленная работа</t>
+          <t>Полный день</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1552,39 +1556,39 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>От 1 года до 3 лет</t>
+          <t>От 3 до 6 лет</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Опыт промышленной разработки на высокоуровневых языках программирования (С++, Python, Java, C#, Python, Ruby - любые два) - 2–3 года и более. </t>
+          <t>Опыт разработки сетевых приложений (tcp/ip, sockets). Минимальный опыт использования HTML/XML для взаимодействия с интерфейсом. Навыки разработки с использованием...</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>96551227</t>
+          <t>94976920</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Middle Python developer</t>
+          <t>Ведущий аналитик данных / Начальник отдела</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/96551227</t>
+          <t>https://hh.ru/vacancy/94976920</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>не указана</t>
+          <t>От 200000 RUR</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2024-04-09T18:40:15+0300</t>
+          <t>2024-04-04T11:50:08+0300</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1594,12 +1598,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Группа НЛМК</t>
+          <t>Московский городской педагогический университет (ГАОУ ВО МГПУ)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Удаленная работа</t>
+          <t>Полный день</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1609,39 +1613,39 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>От 1 года до 3 лет</t>
+          <t>От 3 до 6 лет</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Общие знания типов и структур данных в Python. Понимание паттерна Репозиторий. Общее знакомство с GRASP. Понимание и опыт применения принципов...</t>
+          <t>Понимание принципов и основ разработки API. Программирование на языке Python. Знания библиотек numpy, pandas, matplotlib, scikit-learn, xgboost, tensorflow, nltk...</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>96625913</t>
+          <t>96601952</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Middle QA инженер (full stack)</t>
+          <t>Ведущий разработчик Python</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/96625913</t>
+          <t>https://hh.ru/vacancy/96601952</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>не указана</t>
+          <t>От 200000 до 250000 RUR</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2024-04-10T14:43:53+0300</t>
+          <t>2024-04-10T11:01:59+0300</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1651,12 +1655,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>ФИНАМ</t>
+          <t>ДжамильКо</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Удаленная работа</t>
+          <t>Полный день</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1671,34 +1675,34 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Опыт в тестировании WEB-приложений от 2-х лет. Опыт разработки автоматизированных API/UI тестов на Python от 6 месяцев. </t>
+          <t>Обязателен опыт разработки на Python. Понимание принципов разработки SOLID, KISS, DRY. Понимание принципов работы баз данных. Желателен опыт разработки в...</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>95892862</t>
+          <t>94782503</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Тест-менеджер (онлайн-кинотеатр Premier, Матч ТВ, сайты телеканалов)</t>
+          <t>Разработчик Python</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/95892862</t>
+          <t>https://hh.ru/vacancy/94782503</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>не указана</t>
+          <t>От 190000 RUR</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2024-04-01T14:19:50+0300</t>
+          <t>2024-04-09T20:38:36+0300</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1708,12 +1712,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>RUTUBE</t>
+          <t>НПФ Будущее</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Удаленная работа</t>
+          <t>Полный день</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1728,34 +1732,34 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Умение проводить ревью и корректировку тестовой модели. Умение вести отчетность о статусах проектов. Знание процессов разработки и теории тестирования.</t>
+          <t xml:space="preserve">Высшее образование (техническое). Опыт работы от 2 лет. Отличное знание Python. Опыт разработки web-приложений и Restful API. </t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>96541650</t>
+          <t>96609440</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Менеджер проекта (Эксперт)</t>
+          <t>Старший QA-инженер</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/96541650</t>
+          <t>https://hh.ru/vacancy/96609440</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>не указана</t>
+          <t>От 180000 до 290000 RUR</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2024-04-10T09:17:14+0300</t>
+          <t>2024-04-10T12:06:58+0300</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1765,12 +1769,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>МТС</t>
+          <t>Клируэй Текнолоджис</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Удаленная работа</t>
+          <t>Полный день</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1780,39 +1784,39 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>От 1 года до 3 лет</t>
+          <t>От 3 до 6 лет</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>...и эксплуатации операторских сетей ШПД/КТВ/IPTV. Понимание принципов проектирования и разработки информационных систем. Знание SQL, Linux, Python (будет преимуществом).</t>
+          <t>Знание языков программирования (например, Python, Java) для разработки и поддержки тестовых сценариев. Будет преимуществом опыт разработки на C# или Go...</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>95798755</t>
+          <t>95813424</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>QA middle</t>
+          <t>Backed Engineer (Python)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/95798755</t>
+          <t>https://hh.ru/vacancy/95813424</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>не указана</t>
+          <t>От 180000 до 230000 RUR</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2024-03-29T14:36:12+0300</t>
+          <t>2024-03-29T17:26:52+0300</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1822,12 +1826,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>ОКБ</t>
+          <t>AURAi</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Удаленная работа</t>
+          <t>Полный день</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1837,39 +1841,39 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>От 1 года до 3 лет</t>
+          <t>От 3 до 6 лет</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Опыт разработки тестовой документации, анализ спецификаций. Опыт работы в автоматизации со стеком python(pytest). Опыт взаимодействия с первой линии поддержки...</t>
+          <t xml:space="preserve">Опыт работы с Python. - Опыт работы с Multiprocessing, Multithreading. - Опыт работы Docker. - Опыт разработки и внедрения REST API. - </t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>96509200</t>
+          <t>93556005</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Разработчик системы производственного планирования (Python)</t>
+          <t>Финансовый аналитик</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/96509200</t>
+          <t>https://hh.ru/vacancy/93556005</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>не указана</t>
+          <t>От 180000 RUR</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2024-04-09T11:31:56+0300</t>
+          <t>2024-03-26T11:34:57+0300</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1879,12 +1883,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Ресурс, ГАП</t>
+          <t>Негосударственный пенсионный фонд ГАЗФОНД пенсионные накопления</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Удаленная работа</t>
+          <t>Полный день</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1894,39 +1898,39 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>От 1 года до 3 лет</t>
+          <t>От 3 до 6 лет</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Знание и умение работать с библиотеками Python: Pandas. Sqlalchemy или pyodbc. Будет плюсом опыт работы с библиотеками по линейному программированию...</t>
+          <t>Опытный пользователь MS Office Excel, Power Point. Знание 1С, SQL, Python приветствуется. Умение вести деловую переписку. Умение работать с...</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>94388218</t>
+          <t>96786957</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Data analyst</t>
+          <t>Системный администратор Linux Mikrotik / DevOps</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/94388218</t>
+          <t>https://hh.ru/vacancy/96786957</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>не указана</t>
+          <t>От 180000 до 210000 RUR</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2024-04-02T12:31:22+0300</t>
+          <t>2024-04-12T09:10:50+0300</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1936,12 +1940,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Звук</t>
+          <t>Кибертех-Сигнал</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Удаленная работа</t>
+          <t>Полный день</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1951,39 +1955,39 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>От 1 года до 3 лет</t>
+          <t>От 3 до 6 лет</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Знание языков программирования для анализа данных (Python, PySpark). Понимание основ статистики и машинного обучения Наличие опыта работы в крупных ИТ...</t>
+          <t>Опыт администрирования и поддержки платформы IP-телефонии на базе Asterisk (FreePBX). Опыт разработки скриптов на различных языках (bash, perl, python...</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>95610397</t>
+          <t>96436627</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Младший DevOps-инженер</t>
+          <t>Разработчик/Программист С++</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/95610397</t>
+          <t>https://hh.ru/vacancy/96436627</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>до 150000 RUR</t>
+          <t>От 180000 RUR</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2024-03-27T12:22:46+0300</t>
+          <t>2024-04-11T15:10:44+0300</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1993,12 +1997,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Верме</t>
+          <t>РОССИ</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Удаленная работа</t>
+          <t>Полный день</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2008,39 +2012,39 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>От 1 года до 3 лет</t>
+          <t>Более 6 лет</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Logs (ELK + grook pattern use). Bash, groovy, python - опыт автоматизации. Monitoring (Prometheus exporters + alertmanager + grafana dashboards). </t>
+          <t>Знание С#, Python. — Опыт работы с FFMPEG и GSTREAMER;. — Опыт работы с OCR. — Опыт разработки кроссплатформенных приложений/сервисов на .Net...</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>96522089</t>
+          <t>95621442</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Аналитик по машинному обучению</t>
+          <t>Python-разработчик</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/96522089</t>
+          <t>https://hh.ru/vacancy/95621442</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>не указана</t>
+          <t>От 170000 до 230000 RUR</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2024-04-09T13:26:28+0300</t>
+          <t>2024-03-27T13:54:17+0300</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2050,12 +2054,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Московская Биржа</t>
+          <t>Грамант</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Удаленная работа</t>
+          <t>Полный день</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2065,39 +2069,39 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>От 1 года до 3 лет</t>
+          <t>От 3 до 6 лет</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Уверенное владение Python (умение писать чистый и воспроизводимый код и править чужой), SQL, Spark. Понимание базовых ML-алгоритмов и библиотек...</t>
+          <t>Что вам нужно знать: – Python. – Уверенное знание Django. – SQL и принципы проектирования баз данных. Лучше всего, если у вас есть...</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>95130165</t>
+          <t>96764148</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>QA Engineer</t>
+          <t>Инженер-автоматчик</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/95130165</t>
+          <t>https://hh.ru/vacancy/96764148</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>не указана</t>
+          <t>От 170000 до 184000 RUR</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2024-03-20T14:07:09+0300</t>
+          <t>2024-04-12T00:44:28+0300</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2107,12 +2111,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>«Баланс-Платформа»</t>
+          <t>Антарктис</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Удаленная работа</t>
+          <t>Полный день</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2122,39 +2126,39 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>От 1 года до 3 лет</t>
+          <t>От 3 до 6 лет</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Опыт программирования автотестов на python (знание библиотеки requests). Знание python core. Опыт использования библиотек и фреймворков python (selenium, allure, loguru...</t>
+          <t xml:space="preserve">Опыт работы с программным обеспечением (Carel, Owen, Segnetics). Знания языка программирования Python. Знание языков программно-технических средств различных ПЛК. </t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>96749463</t>
+          <t>96156114</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Back-end developer middle (PHP API)</t>
+          <t>QA Manual Engineer (Partner Experience)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/96749463</t>
+          <t>https://hh.ru/vacancy/96156114</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>не указана</t>
+          <t>От 170000 RUR</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2024-04-11T18:39:46+0300</t>
+          <t>2024-04-04T09:30:26+0300</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2164,12 +2168,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Ситипоинт</t>
+          <t>BestDoctor</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Удаленная работа</t>
+          <t>Полный день</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2179,39 +2183,39 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>От 1 года до 3 лет</t>
+          <t>От 3 до 6 лет</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Работа с системами контроля версий (svn/git). Опыт разработки в команде будет в плюс. Опыт проектирования и реализации REST API. </t>
+          <t xml:space="preserve">Коммерческий опыт функционального и нефункционального тестирования от 3+ лет. Понимание клиент-серверной архитектуры, общее понимание сетевых технологий. </t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>96419528</t>
+          <t>96192698</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Разработчик DWH, ETL</t>
+          <t>Аналитик данных (BI)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/96419528</t>
+          <t>https://hh.ru/vacancy/96192698</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>не указана</t>
+          <t>От 160000 до 200000 RUR</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2024-04-08T13:21:41+0300</t>
+          <t>2024-04-04T15:20:51+0300</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2221,12 +2225,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Polymedia</t>
+          <t>ФАНУ Востокгосплан</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Удаленная работа</t>
+          <t>Полный день</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2236,39 +2240,39 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>От 1 года до 3 лет</t>
+          <t>От 3 до 6 лет</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Опыт работы в области ETL/DWH - от 2 лет. Знание Python. Опыт работы с ETL инструментами. Знание SQL на качественном...</t>
+          <t xml:space="preserve">Практические навыки сбора требований к BI-визуализации с пользователей. Опыт разработки и оптимизации SQL-запросов для извлечения данных. </t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>96056518</t>
+          <t>96601372</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Тестировщик / QA Engineer (ручное+ автоматизированное тестирование)</t>
+          <t>Программист Python</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/96056518</t>
+          <t>https://hh.ru/vacancy/96601372</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>не указана</t>
+          <t>От 150000 до 180000 RUR</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2024-04-03T08:37:16+0300</t>
+          <t>2024-04-10T10:58:25+0300</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2278,12 +2282,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Brandquad</t>
+          <t>ДжамильКо</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Удаленная работа</t>
+          <t>Полный день</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2298,34 +2302,34 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Опыт работы в должности QA от 1 года. Проактивность и умение самостоятельно расставлять приоритеты. Уверенный пользователь UNIX. Все манипуляции с...</t>
+          <t xml:space="preserve">Опыт разработки в Python. Понимание принципов разработки SOLID, KISS, DRY. Желателен опыт разработки в СУБД Оracle, PostgreSQL, MS SQL. </t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>95423668</t>
+          <t>94774057</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Python Backend Developer (Middle, Remote)</t>
+          <t>Программист алгоритмов компьютерного зрения</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/95423668</t>
+          <t>https://hh.ru/vacancy/94774057</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>до 195000 RUR</t>
+          <t>От 150000 RUR</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2024-03-25T11:11:59+0300</t>
+          <t>2024-03-14T16:00:18+0300</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2335,12 +2339,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>JetLend</t>
+          <t>Прикладная Робототехника</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Удаленная работа</t>
+          <t>Полный день</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2350,39 +2354,39 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>От 1 года до 3 лет</t>
+          <t>От 3 до 6 лет</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Умение писать юнит-тесты. Опыт промышленной разработки на Python от 1 года. Опыт работы с очередями задач (Celery). </t>
+          <t xml:space="preserve">Опыт программирования на C++ и Python, более 3-х лет. Знание классических алгоритмов компьютерного зрения, обширные знания библиотеки openCV. </t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>94764640</t>
+          <t>96121551</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Специалист технической поддержки</t>
+          <t>QA Engineer (Middle)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/94764640</t>
+          <t>https://hh.ru/vacancy/96121551</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>не указана</t>
+          <t>От 150000 до 250000 RUR</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2024-04-10T14:12:24+0300</t>
+          <t>2024-04-03T17:49:17+0300</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2392,12 +2396,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Doczilla</t>
+          <t>CRTEX</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Удаленная работа</t>
+          <t>Полный день</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2412,34 +2416,34 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>...все что угодно. Хотя, всегда в этом месте делаю оговорку и вспоминаю о филологах и лингвистах, которые пришли в Python.</t>
+          <t xml:space="preserve">Опыт тестирования бека, без фронта. Базовые знания Python/Go. SQL на уровне средних запросов. Опыт работы с Allure TestOps. </t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>94749035</t>
+          <t>95904460</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Аналитик данных / Data Scientist</t>
+          <t>ML-разработчик</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/94749035</t>
+          <t>https://hh.ru/vacancy/95904460</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>не указана</t>
+          <t>От 150000 RUR</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2024-04-10T11:17:22+0300</t>
+          <t>2024-04-10T16:07:17+0300</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2449,12 +2453,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>RedCat</t>
+          <t>КоинКит</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Удаленная работа</t>
+          <t>Полный день</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2469,34 +2473,34 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Умение строить правильные визуализации и доносить на их основе идеи до стейкхолдеров. Опыт работы с Python от 3 лет, SQL...</t>
+          <t>Практический опыт реализации полного цикла разработки модели от идеи до внедрения. Уверенное владение python экосистемой машинного обучения. Pandas + уверенные...</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>94855438</t>
+          <t>95845470</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Python – разработчик (Middle+)</t>
+          <t>Junior Quantitative Researcher</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/94855438</t>
+          <t>https://hh.ru/vacancy/95845470</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>до 260000 RUR</t>
+          <t>От 150000 до 250000 RUR</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2024-03-15T19:04:26+0300</t>
+          <t>2024-04-09T20:40:01+0300</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2506,12 +2510,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>KTS</t>
+          <t>Актив Матрикс</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Удаленная работа</t>
+          <t>Полный день</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2521,39 +2525,39 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>От 1 года до 3 лет</t>
+          <t>Нет опыта</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>От 2 лет коммерческого опыта в релевантном стеке. Опыт проектирования сервисов. Понимание алгоритмов и структур данных: считаем этот скилл важен...</t>
+          <t xml:space="preserve">Имеет практический опыт в анализе данных на python (numpy, pandas, scikit-learn etc) . Понимает принципы работы основных методов машинного обучения. </t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>95442973</t>
+          <t>96815097</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DevOps engineer (Middle/Middle+)</t>
+          <t>Аналитик данных</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/95442973</t>
+          <t>https://hh.ru/vacancy/96815097</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>не указана</t>
+          <t>От 150000 RUR</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2024-04-01T10:45:30+0300</t>
+          <t>2024-04-12T13:40:58+0300</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2563,12 +2567,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Синхро</t>
+          <t>ДИКАРТ завод гипсовой лепнины</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Удаленная работа</t>
+          <t>Полный день</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2583,64 +2587,3598 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>...Gitlab CI, Argo CD). Уверенные знания Linux систем. Опыт работы с postgres на уровне администрирования. Опыт написания автоматизаций(Bash, Python).</t>
+          <t>Базовый SQL, VBA, Power Query, уверенный пользователь Excel. Приветствуется опыт работы с Python, PowerBI, Bitrix24, 1С, Docker, Git.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>95239097</t>
+          <t>96121272</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ML Engineer/Data Scientist</t>
+          <t>QA Automation Engineer (Middle)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/95239097</t>
+          <t>https://hh.ru/vacancy/96121272</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>От 150000 до 250000 RUR</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2024-04-12T10:41:20+0300</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>CRTEX</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>От 3 до 6 лет</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Опыт ручного тестирования и составления тест дизайна. Знание принципов разработки программного обеспечения, алгоритмом, клиент северной архитектуры. Опыт тестирования мобильных приложений. </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>96456745</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Инженер-программист 2-ой категории (удалённо)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96456745</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>От 150000 RUR</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2024-04-11T19:39:40+0300</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>ТУРКОВ</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>От 3 до 6 лет</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Знание С99/С11/C17. Базовые знания Python 3. Умение пользоваться осциллографом. Знание теории автоматического управления. </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>96587249</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Разработчик С++</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96587249</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>От 150000 до 300000 RUR</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2024-04-10T08:52:35+0300</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>ГК ТВЕМА</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Высшее техническое (незаконченное, начиная с 4-го курса) образование. Опыт работы с TensorRT и OnnxRT. Знания Python(3.6+...</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>96266000</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Старший научный сотрудник</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96266000</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>От 150000 RUR</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2024-04-05T14:11:35+0300</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Проектный центр ИТЭР</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Более 6 лет</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Опыт разработки программно-аппаратного обеспечения, а именно: макетирование; программирование на С#, С++, java, python, LabVIEW (VHDL, Verilog); работа со стоечным...</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>95900121</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Data Engineer</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/95900121</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>От 150000 до 250000 RUR</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2024-04-10T15:24:04+0300</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Црм.Лидс</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Уверенное владение Python и библиотеками для работы с данными и построения ETL процессов, опыт работы с ETL-инструментами. </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>96610425</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Middle Python-разработчик</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96610425</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>От 140000 до 250000 RUR</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2024-04-10T12:15:59+0300</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>AERODISK</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Опыт коммерческой разработки на Python. Опыт работы с Linux, Bash, SSH. Опыт работы с SQL и NoSQL базами данных. </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>96286287</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Backend разработчик в крупный биомедицинский проект</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96286287</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>От 140000 до 180000 RUR</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2024-04-05T18:35:15+0300</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>ФБУН НИИ СБМ Роспотребнадзора</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Уверенное владение python, знание Django и более современных фреймворков (FastAPI). Опыт работы с конкурентным программированием, оптимизации потока вызовов и обработки...</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>95728679</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Backend разработчик</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/95728679</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>От 140000 до 180000 RUR</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2024-03-28T18:10:33+0300</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>ФБУН НИИ СБМ Роспотребнадзора</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>От 3 до 6 лет</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Уверенное владение python, знание Django и более современных фреймворков (FastAPI). Опыт работы с конкурентным программированием, оптимизации потока вызовов и обработки...</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>96635828</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Web-программист</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96635828</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>От 130000 до 175000 RUR</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2024-04-10T16:14:42+0300</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Вилена</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Опыт работы с Django более 2х лет. - Продвинутое знание Python, JavaScript. - Опыт работы с PostgreSQL. - Знание и опыт работы...</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>94360994</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Разработчик (Python, AI)</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/94360994</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>От 130000 RUR</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2024-04-05T17:56:35+0300</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Major Terminal</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Опыт разработки от 3х лет. Уверенные знания MSSQL. Опыт разработки с API. Знания библиотек Python: NumPy, Pandas, Matplotlib, Scikit...</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>93208814</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Аналитик данных (взыскание)</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/93208814</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>От 130000 до 250000 RUR</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2024-04-08T10:48:53+0300</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>КНОПКАДЕНЬГИ</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Высшее образование. Опыт использования Python при анализе данных. Опыт работы разработчиком, аналитиком не менее 1-го года в сфере взыскания...</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>96489294</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Системный аналитик (офис)</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96489294</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>От 130000 RUR</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2024-04-09T08:43:01+0300</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Меньшиков HR</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Нет опыта</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Знания основ математической статистики. Общие навыки программирования (Опыт с Python и Pandas). Понимание бизнес-процессов. Опыт работы с аналитикой мобильных...</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>96266545</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Научный сотрудник</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96266545</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>От 125000 RUR</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2024-04-05T14:17:56+0300</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Проектный центр ИТЭР</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>От 3 до 6 лет</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Опыт разработки программно-аппаратного обеспечения, а именно: макетирование; программирование на С#, С++, java, python, LabVIEW; работа со стоечным оборудованием; опыт...</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>96807986</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Technical Support and Presales Engineer</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96807986</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>От 120000 до 160000 RUR</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2024-04-12T12:26:56+0300</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Tevian (ООО Технологии видеоанализа)</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Базовые знания Python. Знание ОС Windows и Linux на уровне администратора. Хорошее представление об устройстве сети и веб технологий. </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>92148813</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Младший научный сотрудник (ИИ в Здравоохранении)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/92148813</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>От 120000 до 120000 RUR</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2024-03-21T11:17:28+0300</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>ГБУЗ «Научно-практический клинический центр диагностики и телемедицинских технологий ДЗМ»</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Нет опыта</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>...на языке Python. Основы ML, CV. Применять теорию программирования и языки программирования при разработке баз данных, проектировании и разработке программных...</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>94543429</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Аналитик службы безопасности</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/94543429</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>От 120000 RUR</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2024-04-08T11:30:03+0300</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Кадровое агентство BWG</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>...затраты, расходы vs дивиденды итд. Навыки программной обработки информации (MySQL, Python) - плюс. Активная жизненная позиция, умение разговаривать с людьми, понятная...</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>95899139</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Инженер-программист со знанием Python</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/95899139</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>От 120000 RUR</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2024-04-10T15:17:14+0300</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Реватт Рус</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>От 3 до 6 лет</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Опыт коммерческой разработки от 3х лет. Знание Python и его стандартных библиотек, работы с файлами, json, xml. </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>89997213</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Тестировщик / QA (офис)</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/89997213</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>От 115000 до 140000 RUR</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2024-04-09T00:30:24+0300</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>ВижнЛабс (VisionLabs)</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Опыт работы с любым Issue Tracker. Понимание жизненного цикла разработки ПО. Владение системой контроля версий GIT. Опыт работы с системами...</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>94777346</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Computer Vision Engineer (Junior/Junior+)</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/94777346</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>От 115000 до 200000 RUR</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2024-04-10T16:42:15+0300</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Tevian (ООО Технологии видеоанализа)</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>От 1 года опыта работы в CV. Знание классического ML. Знакомство с основными нейросетевыми архитектурами в CV (Resnet/Mobilenet, SSD...</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>95548988</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Урбан-аналитик данных</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/95548988</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>От 100000 RUR</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2024-03-26T15:33:29+0300</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Mayak</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Частичная занятость</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Качественный анализ российского и международного опыта в части лучших практик проектов в сфере недвижимости и инфраструктурных решений. Высшее образование (big...</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>96161346</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>WEB-разработчик</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96161346</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>От 100000 RUR</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2024-04-04T10:21:46+0300</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Прогматик Лаб</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Комфортный уровень владения Linux как среды разработки. Стек: JavaScript+React.js, HTML5, CSS, Python. Будет плюсом: Bash, Go, знание процессов...</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>96445636</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Инженер технической поддержки (гибридный график)</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96445636</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>От 100000 RUR</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2024-04-11T16:43:09+0300</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Avanpost</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Опыт работы с JIRA и/или любой подобной системой, поддерживающей любую гибкую методологию управления проектами для разработки программного обеспечения. </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>95956659</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Разработчик ПО</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/95956659</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>От 100000 RUR</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2024-04-02T09:11:27+0300</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Прогматик Лаб</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Комфортное владение Линукс как среды для разработки. Опыт разработки ПО или DevOps. Желателен опыт c: Ansible, Infrastructure deployment systems, Python...</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>95699651</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Backend-разработчик Middle</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/95699651</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>От 100000 до 150000 RUR</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2024-03-28T13:41:48+0300</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Ии-Новые Строительные Решения</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Опыт работы от 2х лет в разработке backend на Python, предпочтительно с использованием FastAPI. - Опыт работы с реляционными базами...</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>96011362</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Специалист технической поддержки (python)</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96011362</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>От 100000 до 100000 RUR</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2024-04-11T16:47:24+0300</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>SPTLab</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Знание ОС Linux (на уровне уверенного пользователя). Знание python на уровне junior. Способность и желание быстро изучать новые языки программирования. </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>95180833</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Инженер технической поддержки (Incident manager)</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/95180833</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>От 100000 RUR</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2024-03-21T10:55:46+0300</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>ГИРУС</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">опыт работы на аналогичной должности или на позиции системного администратора (Linux). - умение задавать нужные вопросы для формирования информации о проблеме. - </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>87643118</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Junior Data Engineer/ BI Аналитик (Дашборды)</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/87643118</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>От 100000 RUR</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2024-03-20T14:11:06+0300</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>ГБУЗ «Научно-практический клинический центр диагностики и телемедицинских технологий ДЗМ»</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Знание современных методов статистического анализа. Работа с данными: знание SQL. Опыт разработки на Python, умение читать и анализировать чужой код...</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>95800355</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Специалист по работе с голосовыми и текстовыми ботами</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/95800355</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>От 100000 RUR</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2024-04-10T14:52:17+0300</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Городской информационный центр Инфосити</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>От 3 до 6 лет</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Опыт внедрение и реализация с нуля умного голосового бота. Опыт.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>96836094</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Гейм-дизайнер</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96836094</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>От 100000 до 200000 RUR</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2024-04-12T17:28:08+0300</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>FunFlow (ООО Мобильные Игровые Решения)</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>...их формирование и управление ими. Инициативность в работе, самостоятельность, проактивность. Будет плюсом: Базовые навыки SQL/Python. Нацеленность на принятие решений.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>96693886</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Аналитик</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96693886</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>От 90000 RUR</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2024-04-11T10:23:52+0300</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Rendez-Vous</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>...уровень владения Excel (тест при прохождении интервью). Высокий уровень инициативности и самоорганизации. Дополнительным преимуществом будет опыт работы с SQL, Python.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>96597036</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Инженер-программист</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96597036</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>От 90000 RUR</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>2024-04-10T10:22:23+0300</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>НИИ Полюс им. М.Ф.Стельмаха</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Желателен опыт работы от 1 года в области машинного зрения. Знание языков C++, Python. Работа с библиотеками, с различными операционными...</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>95238565</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Тестировщик ПО</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/95238565</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>От 90000 до 90000 RUR</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>2024-03-21T19:37:06+0300</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Московский филиал АО ЦентрИнформ</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Опыт тестирования программных продуктов. Знание bash, python, sql. Уверенный пользователь Linux.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>90743717</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Data Engineering Intern / Стажер дата-инженер</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/90743717</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>От 90000 RUR</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2024-03-14T17:10:49+0300</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Procter &amp; Gamble</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Стажировка</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Нет опыта</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Good command of English (Upper-Intermediate or higher level). Python basic knowledge. Availability for at least a 6-month internship. </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>96605588</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Технический писатель</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96605588</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>От 90000 до 130000 RUR</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2024-04-10T11:32:42+0300</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Comindware</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>...VS Code, Visual Studio). Умение читать программный код (JavaScript, Python, C#, PHP, XML). Умение писать программный код (Python, JavaScript, CSS).</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>96190873</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>HTML-верстальщик</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96190873</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>От 80000 до 130000 RUR</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>2024-04-04T15:12:52+0300</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Ecomtradestar</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>От 3 до 6 лет</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">...проектом, от разработки до запуска в онлайн. Опыт работы с шаблонизаторами: Навыки разработки HTML шаблонов для интеграции с Python шаблонизаторами. </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>96012131</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Специалист по Machine Learning / Data Science (python)</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96012131</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>От 80000 RUR</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>2024-04-02T16:54:44+0300</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>ФГУП НИИ Квант</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Законченное высшее образование либо студенты старших курсов. Навыки программирования на python. Опыт работы с numpy, pandas, pytorch/tensorflow/keras. </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>96194250</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Разработчик Odoo (Python)</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96194250</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>От 80000 до 150000 RUR</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2024-04-10T15:35:03+0300</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>МосТрансАренда</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Опыт программирования на Python. Опыт работы с CRM-системой odoo и django - от года. Опыт работы с ORM(django ORM...</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>91714266</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Программист С++</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/91714266</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>От 80000 до 170000 RUR</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2024-04-08T11:46:03+0300</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Российские космические системы</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Уверенное владение С++. Опыт работы с ОС Linux. Опыт разработки ПО с использованием фреймворка Qt. Опыт работы с БД PostgreSqL. </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>96493302</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Junior программист/разработчик Frontend backend/Junior разработчик</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96493302</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>От 75000 до 90000 RUR</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2024-04-09T09:22:46+0300</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>AVPOWER</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Увлечение микроэлектроникой, мы работаем с ARM, esp32 и т.д. Знание Linux, Python, C++. Работа в Git. </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>95628366</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Аналитик маркетплейсы, работа в офисе</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/95628366</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>От 71215 до 183579 RUR</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>2024-03-27T14:32:54+0300</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Orexland</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Нет опыта</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Уверенный пользователь Google Sheets и Excel (ВПР/ГПР, if, importrange, и тд). Быть на связи 24/7, быть готовым в...</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>96505706</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Аналитик</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96505706</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>От 70000 до 70000 RUR</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2024-04-09T11:06:22+0300</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Общественная палата РФ</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Нет опыта</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>...форматирование страниц, использование режима «разработчик»). Имеют опыт анализа данных с иным ПО (Stata, SPSS, R или Python) или готовы учиться...</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>92816235</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Project manager Junior</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/92816235</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>От 70000 RUR</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>2024-03-20T10:45:38+0300</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>CRTEX</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Нет опыта</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Опыт работы с базами данных, инструментами анализа данных (например, SQL, Python, R, Power BI) и создание отчетов на основе данных.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>96796765</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Project manager Junior</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96796765</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>От 60000 RUR</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2024-04-12T10:46:00+0300</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>CRTEX</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Нет опыта</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Опыт работы с базами данных, инструментами анализа данных (например, SQL, Python, R, Power BI) и создание отчетов на основе данных.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>96232848</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Младший менеджер IT-проектов</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96232848</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>От 60000 до 80000 RUR</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2024-04-05T08:11:20+0300</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>METACORP</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Нет опыта</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>...к видеоиграм и наличие персонального геймерского опыта. Опыт работы в сферах, связанных с коммуникацией или аналитикой. Владение HTML, SQL, Python.</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>92909852</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Project manager Junior</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/92909852</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>От 60000 RUR</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2024-04-10T16:23:13+0300</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>CRTEX</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Нет опыта</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Опыт работы с базами данных, инструментами анализа данных (например, SQL, Python, R, Power BI) и создание отчетов на основе данных.</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>96713904</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Бизнес ассистент IT</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96713904</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>От 60000 RUR</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2024-04-11T13:08:06+0300</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>CRTEX</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Нет опыта</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Опыт работы с базами данных, инструментами анализа данных (например, SQL, Python, R, Power BI) и создание отчетов на основе данных.</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>96596810</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Продуктовый аналитик (Junior)</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96596810</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>От 60000 RUR</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>2024-04-10T10:20:40+0300</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Планетра</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Коммуникативные навыки для эффективного взаимодействия с технологами и командой разработки «на одном языке». Как бонус - знание языка программирования Python.</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>96461932</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Стажёр-разработчик Spark Hadoop BigData</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96461932</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>От 50000 до 110000 RUR</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2024-04-11T21:38:40+0300</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Datanomica</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Стажировка</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Нет опыта</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Пройденные курсы по базам данных, python будет плюсом. Способность самостоятельно искать информацию в тематических ресурсах на английском языке для решения...</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>94774031</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Младший разработчик CV алгоритмов/алгоритмов управления</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/94774031</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>От 50000 RUR</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>2024-03-14T15:59:51+0300</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Прикладная Робототехника</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Опыт программирования на python и c++ от 1 года, желателен опыт участия в собственных или коммерческих проектах. Опыт работы с...</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>96793594</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>QA-engineer</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96793594</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>не указана</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>2024-03-21T19:56:35+0300</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Oil and Gas Production Tools</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Удаленная работа</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>Полная занятость</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>2024-04-12T10:16:16+0300</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>YCLIENTS LLC</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
         <is>
           <t>От 1 года до 3 лет</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Опыт работы с языковыми моделями NLP, понимание применяемых методов и опыт работы с соответствующими библиотеками Python. Опыт файн-тюнинга языковых...</t>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Понимаете принципы тест-дизайна и его практического применения. Знаете методологии тестирования / разработки. Имеете опыт тестирования WEB приложений. Знаете и уверенно...</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>96640607</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Стажер fullstack-разработчик</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96640607</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>не указана</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>2024-04-10T17:08:56+0300</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>АТОН</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Стажировка</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Нет опыта</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Знания технологий frontend (HTML, CSS, JavaScript). Знания технологий backend. Навыки разработки веб-интерфейсов. Навыки работы с базами данных.</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>96733872</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Разработчик Python</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96733872</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>не указана</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>2024-04-11T16:28:56+0300</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>HARTUNG</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Умение собирать Python библиотеки из исходного кода. Знание синтаксиса, алгоритмов, принципов, основных библиотек, типов данных языка Python. Умение работать с...</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>96600825</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Python разработчик (Backend)</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96600825</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>не указана</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>2024-04-10T10:52:03+0300</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Аквариус, Группа компаний</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Наличие завершенных проектов в роли разработчика с использованием Python. Знание и опыт работы с SQL (предпочтительно PostgreSQL). Опыт разработки API...</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>96718482</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Manual QA Engineer</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96718482</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>не указана</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>2024-04-11T13:55:38+0300</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>AERODISK</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Написание автотестов. Тестирование REST API и/или интеграции. Опыт написания скриптов (Bash, Python, XPath, RegExp). Интерес к анализу и тестированию...</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>96781275</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>RUST Developer</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96781275</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>не указана</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>2024-04-12T07:51:55+0300</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>НВ-АСУпроект</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Знакомство с методологиями разработки Agile. Опыт работы в команде разработки комплексного ПО. Знание дополнительных языков программирования Python, JavaScript. </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>96610590</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Тестировщик Junior</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96610590</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>не указана</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2024-04-10T12:18:20+0300</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>ТрансМашХолдинг, Группа компаний</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Нет опыта</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Оконченное высшее или среднее профессиональное образование (техническое или ИТ). Знание основ тестирования. Системное мышление и системный подход к обработке информации. </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>96559217</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Стажер - Backend Developer</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96559217</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>не указана</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>2024-04-09T21:41:28+0300</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>СИСТЭМ ЭЛЕКТРИК</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Стажировка</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Нет опыта</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Базовые знания языков высокого уровня: Python 3 (backend), JavaScript (frontend). - Базовые знания веб-технологий: JSON, XML, HTML, CSS, REST API. - </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>95511446</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Стажер-разработчик Python</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/95511446</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>не указана</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>2024-03-26T10:47:45+0300</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>START</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Стажировка</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Нет опыта</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Развитие навыков оценки и планирования. Профильное техническое образование. Знание основ программирования. Знание Python и баз данных (желательно). Наличие выполненных проектов...</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>96270733</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Frontend-разработчик (React)</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96270733</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>не указана</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>2024-04-05T15:00:28+0300</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>НТЦ Вулкан</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>знание WebPack или других инструментов сборки проектов. Будет плюсом: - опыт разработки сложных и многопользовательских приложений с «одновременной совместной работой» над...</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>96455019</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Картограф</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96455019</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>не указана</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>2024-04-10T15:14:19+0300</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>SberAutoTech</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>От 3 до 6 лет</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Профильный опыт работы от 3-х лет. Будет плюсом: Знание Python. Опыт разворачивания баз данных ГИС. Опыт работы с ПО...</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>94328634</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Специалист по оценке национальных и федеральных проектов</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/94328634</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>не указана</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>2024-03-27T09:44:10+0300</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Счетная палата Российской Федерации</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Более 6 лет</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>...полный бюджетный цикл). Опыт непосредственного участия в разработке программного обеспечения. Базовые знания статистического анализа данных. Знание основ Python и SQL.</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>96248669</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Тестировщик Python (Оплачиваемая стажировка)</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96248669</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>не указана</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>2024-04-05T11:03:17+0300</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Coral Club</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Стажировка</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Нет опыта</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CORAL CLUB — ЛИДЕР В ПРОДВИЖЕНИИ ЗДОРОВОГО ОБРАЗА ЖИЗНИ. Получать опыт в профильном направлении. Понимаете основы тестирования программного обеспечения. </t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>90262297</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Front-end React-разработчик</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/90262297</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>не указана</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>2024-04-08T16:07:31+0300</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>АКРИХИН</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Опыт работы с react-query, Storybook, jest/Cypress или Docker. Понимание принципов работы бэкенда (Python, Go) и умение писать спецификации...</t>
         </is>
       </c>
     </row>

--- a/data/vacancies.xlsx
+++ b/data/vacancies.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,42 +485,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>94543666</t>
+          <t>96113712</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Тестировщик (QA инженер fullstack)</t>
+          <t>OS Team Lead</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/94543666</t>
+          <t>https://hh.ru/vacancy/96113712</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>От 68000 до 90000 RUR</t>
+          <t>От 300000 до 400000 RUR</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024-04-01T15:45:58+0300</t>
+          <t>2024-04-03T16:12:54+0300</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>не указан</t>
+          <t>Москва</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>GO Digital</t>
+          <t>А-стор</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Удаленная работа</t>
+          <t>Полный день</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -530,49 +530,49 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>От 1 года до 3 лет</t>
+          <t>От 3 до 6 лет</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>...C#, Kotlin, Python или PHP): умение решать базовые алгоритмические задачи; например, с массивами. Знание техник тест дизайна. Опыт разработки тестовой...</t>
+          <t>Опыт разработки на платформе Linux (kernel space). Опыт работы с git. БУДЕТ ПЛЮСОМ: Опыт участия в OpenSource проектах. Опыт разработки...</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>96492113</t>
+          <t>96808990</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Специалист ночной поддержки с техническими знаниями (Браузер)</t>
+          <t>Backend разработчик (Python middle+/Senior)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/96492113</t>
+          <t>https://hh.ru/vacancy/96808990</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>От 36000 RUR</t>
+          <t>От 250000 RUR</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024-04-09T09:10:58+0300</t>
+          <t>2024-04-15T12:37:19+0300</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>не указан</t>
+          <t>Москва</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Яндекс Крауд</t>
+          <t>Работа-Каждому</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -587,12 +587,2691 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>От 3 до 6 лет</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">...Backend Python Developer уровня middle+/ Senior с опытом коммерческой разработки от 3х лет с перспективой Team lead Developer. </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>91894673</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Руководитель команды разработки / Team Lead PHP</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/91894673</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>От 250000 до 350000 RUR</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2024-04-14T16:42:13+0300</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>modesco</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Гибкий график</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Более 6 лет</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Опыт работы senior/lead fullstack разработчиком в продуктовой команде не менее 3 лет, опыт руководства или менторства младших коллег более...</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>95916962</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ведущий программист Python</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/95916962</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>От 200000 до 270000 RUR</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2024-04-13T18:17:59+0300</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Веза</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>От 3 до 6 лет</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Опыт работы не менее 5 лет в разработке на Python. Глубокое понимание основных принципов программирования и структур данных. </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>95470507</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>QA Engineer. auto</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/95470507</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>От 180000 до 270000 RUR</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2024-03-25T18:17:26+0300</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Хантфлоу интеграция УЗ2</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>Нет опыта</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Не боитесь сложных ситуаций и больших объёмов информации. Знаете языки JavaScript, HTML и Python. Спокойно относитесь к однообразным задачам и...</t>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Знание Python на уровне, достаточном для написания авто-тестов. Уверенные знания теории тестирования. Понимание процессов разработки ПО. Знание паттернов и...</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>85437503</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Младший программист(Junior)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/85437503</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>От 150000 RUR</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2024-04-01T14:27:48+0300</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>ФГБУ ФНКЦ специализированных видов медицинской помощи и медицинских технологий ФМБА России</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Гибкий график</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">...разработки в учебных или домашних проектах. Опыт работы с HTML и верстки макетов (HTML, CSS, JavaScript). Желание развиваться как разработчик. </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>95845470</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Junior Quantitative Researcher</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/95845470</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>От 150000 до 250000 RUR</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2024-04-12T20:40:01+0300</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Актив Матрикс</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Нет опыта</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Имеет практический опыт в анализе данных на python (numpy, pandas, scikit-learn etc) . Понимает принципы работы основных методов машинного обучения. </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>95638388</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Senior QA manual specialist (mobile, android + web), удаленно (Москва)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/95638388</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>От 150000 до 230000 RUR</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2024-04-14T16:19:10+0300</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Технология здоровья</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Удаленная работа</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>От 3 до 6 лет</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Есть опыт тестирования мобильных приложений от 3 лет, в т.ч под Android. Используешь в работе снифферы трафика Charles/Fiddler...</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>91996473</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ведущий научный сотрудник (ИИ в Лучевой диагностики)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/91996473</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>От 150000 RUR</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2024-03-21T11:17:27+0300</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>ГБУЗ «Научно-практический клинический центр диагностики и телемедицинских технологий ДЗМ»</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Степень кандидата или Доктора наук. Знание языка программирования Python, основных библиотек ML (Pytorch, Keras и др.). Опыт работы научным сотрудником...</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>94920711</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Сетевой инженер</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/94920711</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>От 140000 RUR</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2024-03-18T09:26:13+0300</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>НТЦ Метротек</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Гибкий график</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>От 3 до 6 лет</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Опыт написания скриптов для автоматизации задач на Python. Знание и опыт работы с сетевой подсистемой с Linux. Знание английского языка...</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>93777354</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Junior DevOps-инженер</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/93777354</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>От 130500 RUR</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2024-04-14T10:47:52+0300</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Equip Group</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Навыки программирования на скриптовых языках (Bash / Shell / Python – хотя бы один из). - Навыки IaC (Terraform, Ansible). - Навыки работы с Jenkins...</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>92148813</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Младший научный сотрудник (ИИ в Здравоохранении)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/92148813</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>От 120000 до 120000 RUR</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2024-03-21T11:17:28+0300</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>ГБУЗ «Научно-практический клинический центр диагностики и телемедицинских технологий ДЗМ»</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Нет опыта</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>...на языке Python. Основы ML, CV. Применять теорию программирования и языки программирования при разработке баз данных, проектировании и разработке программных...</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>95865067</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Младший Data-инженер</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/95865067</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>От 103000 RUR</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2024-04-01T10:26:21+0300</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>АНО Университет Национальной Технологической Инициативы 2035</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Удаленная работа</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>...владеете Python. У вас есть знание и опыт работы с библиотеками Python для получения/анализа/визуализации данных, а также разработки...</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>87643118</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Junior Data Engineer/ BI Аналитик (Дашборды)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/87643118</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>От 100000 RUR</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2024-03-20T14:11:06+0300</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>ГБУЗ «Научно-практический клинический центр диагностики и телемедицинских технологий ДЗМ»</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Знание современных методов статистического анализа. Работа с данными: знание SQL. Опыт разработки на Python, умение читать и анализировать чужой код...</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>96011362</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Специалист технической поддержки (python)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96011362</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>От 100000 до 100000 RUR</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2024-04-14T16:47:24+0300</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>SPTLab</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Знание ОС Linux (на уровне уверенного пользователя). Знание python на уровне junior. Способность и желание быстро изучать новые языки программирования. </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>94995579</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Младший/Junior системный администратор</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/94995579</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>От 80000 до 100000 RUR</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2024-04-14T19:35:30+0300</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Антиплагиат</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Скриптовые языки (желательно Python). Опыт администрирования инфраструктуры компании 50-100 человек (плюсом будет работа в компании-разработчике ПО). </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>96493302</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Junior программист/разработчик Frontend backend/Junior разработчик</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96493302</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>От 75000 до 90000 RUR</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2024-04-09T09:22:46+0300</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>AVPOWER</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Увлечение микроэлектроникой, мы работаем с ARM, esp32 и т.д. Знание Linux, Python, C++. Работа в Git. </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>92816235</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Project manager Junior</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/92816235</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>От 70000 RUR</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2024-03-20T10:45:38+0300</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>CRTEX</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Нет опыта</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Опыт работы с базами данных, инструментами анализа данных (например, SQL, Python, R, Power BI) и создание отчетов на основе данных.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>96997630</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Аналитик ecommerce (в офисе)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96997630</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>От 61379 до 183579 RUR</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2024-04-15T11:42:48+0300</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Orexland</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Нет опыта</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Уверенный пользователь Google Sheets и Excel (ВПР/ГПР, if, importrange, и тд). Быть на связи 24/7, быть готовым в...</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>96796765</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Project manager Junior</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96796765</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>От 60000 RUR</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2024-04-12T10:46:00+0300</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>CRTEX</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Нет опыта</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Опыт работы с базами данных, инструментами анализа данных (например, SQL, Python, R, Power BI) и создание отчетов на основе данных.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>92909852</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Project manager Junior</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/92909852</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>От 60000 RUR</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2024-04-10T16:23:13+0300</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>CRTEX</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Нет опыта</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Опыт работы с базами данных, инструментами анализа данных (например, SQL, Python, R, Power BI) и создание отчетов на основе данных.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>96232848</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Младший менеджер IT-проектов</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96232848</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>От 60000 до 80000 RUR</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2024-04-05T08:11:20+0300</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>METACORP</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Нет опыта</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>...к видеоиграм и наличие персонального геймерского опыта. Опыт работы в сферах, связанных с коммуникацией или аналитикой. Владение HTML, SQL, Python.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>96596810</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Продуктовый аналитик (Junior)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96596810</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>От 60000 RUR</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2024-04-13T10:20:40+0300</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Планетра</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Коммуникативные навыки для эффективного взаимодействия с технологами и командой разработки «на одном языке». Как бонус - знание языка программирования Python.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>95994047</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Junior iOS разработчик</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/95994047</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>От 50000 RUR</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2024-04-02T14:04:22+0300</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Сервис Руки</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Гибкий график</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Частичная занятость</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Нет опыта</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Знает хотя бы один из языков программирования Python / C++ / C / Java. С горящими глазами, свежими идеями, полон энтузиазма. </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>94391819</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Стажер Python/C# developer</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/94391819</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>От 35000 до 35000 RUR</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2024-04-12T11:42:09+0300</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Mindbox</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Удаленная работа</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Стажировка</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Нет опыта</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Понимание основ SQL, ООП, принципов тестирования. Опыт web-stack разработки (пет-проджект/курсовая на web-стеке). Способность составлять алгоритмы и...</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>95148524</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Преподаватель детских компьютерных курсов</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/95148524</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>От 30000 до 70000 RUR</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2024-04-13T18:10:30+0300</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Компьютерная Академия Top</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Гибкий график</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Частичная занятость</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Ответственность, пунктуальность, желание делиться знанием и опытом. Знание или опыт работы как минимум в одном из указанных выше направлений компьютерных...</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>96979827</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Junior Python-разработчик</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96979827</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>не указана</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2024-04-15T09:43:36+0300</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>СОГАЗ</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Нет опыта</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Уверенное знание Python. Уверенное знание PostgreSQL и умение писать оптимизированные запросы. Опыт работы с Git. Опыт работы с Pandas. </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>97032524</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Бизнес-аналитик</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/97032524</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>не указана</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2024-04-15T16:16:45+0300</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Тинькофф</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Нет опыта</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Проявляете работоспособность и целеустремленность, умеете доводить дела до конца. Знание SQL и Python будет плюсом. Знание основ машинного обучения будет...</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>96610590</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Тестировщик Junior</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96610590</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>не указана</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2024-04-13T12:18:20+0300</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>ТрансМашХолдинг, Группа компаний</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Нет опыта</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Оконченное высшее или среднее профессиональное образование (техническое или ИТ). Знание основ тестирования. Системное мышление и системный подход к обработке информации. </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>96647688</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Младший веб-разработчик</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96647688</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>не указана</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2024-04-10T18:52:47+0300</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>3Logic Group</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Гибкий график</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Нет опыта</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Базовый SQL (MySQL или PostgreSQL). PHP или Python. Основы HTML. Базовый JS.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>95844563</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Графический дизайнер</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/95844563</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>От 150000 RUR</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2024-04-15T19:19:04+0300</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Казань</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>АНП Зенит</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>От 3 до 6 лет</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Искренний интерес к профессии и желание быть первым в своем деле. Клиентоориентированность – искренне заботиться о Клиенте. Желание стать Мастером, желание...</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>96548600</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Продавец-консультант в магазин брендовой детской одежды Mamma Mia</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96548600</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>От 50000 до 60000 RUR</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2024-04-15T17:56:37+0300</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Казань</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Шаронова Надежда Александровна (Магазин модной одежды Mamma Mia)</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4. Ориентация в сфере моды: трендах, брендах дизайнерах. 1. Умение и желание работать и общаться с клиентами. 2. </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>91359494</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Кредитный аналитик SQL</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/91359494</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>не указана</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2024-04-15T17:28:30+0300</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Казань</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Совкомбанк</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Высшее образование по профилю IT/математика. Знание MS SQL, Python, MS Excel. Опыт анализа большого объема данных, умение делать выводы.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>95299989</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Графический дизайнер</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/95299989</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>не указана</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2024-04-15T15:24:29+0300</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Казань</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Savage</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Опыт работы в аналогичной должности от 1 года. Разработка и верстка рекламных материалов и макетов, презентаций. Знания вариантов производства рекламы...</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>95446317</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Графический и коммуникационный дизайнер</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/95446317</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>не указана</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2024-04-15T14:20:43+0300</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Казань</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Инфоматика</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>От 3 до 6 лет</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Мультидисциплинарность. Опыт, уровень от Middle+. Умение генерировать новые идеи. Понимание принципов коммуникационного дизайна, теории цвета, композиции. Знания в сфере рекламы...</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>97010528</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Агент по продажам коммерческой недвижимости</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/97010528</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>От 500000 RUR</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2024-04-15T13:24:39+0300</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Казань</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Агентство недвижимости Ключ</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Гибкий график</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Что такое работа в сегменте коммерческая недвижимость? Умение работать в режиме многозадачности. Артистичность, стиль и готовность создавать свой media бренд. </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>97010335</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Агент по продажам элитной недвижимости</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/97010335</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>От 300000 до 600000 RUR</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2024-04-15T13:22:48+0300</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Казань</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Агентство недвижимости Ключ</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Гибкий график</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Эдуард Четвериков, без опыта продаж недвижимости: Продал участок стоимостью 1 млрд и заработал более 6 млн руб личной комиссии. </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>97009237</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Продавец-консультант (ТЦ Мега)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/97009237</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>От 48000 до 70000 RUR</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2024-04-15T13:12:35+0300</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Казань</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Снежная Королева</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Гибкий график</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Частичная занятость</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Нет опыта</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>ПОЧУВСТВУЙ, КАК БЬЕТСЯ СЕРДЦЕ «СНЕЖНОЙ КОРОЛЕВЫ». ЧТО ДЕЛАЕТ РАБОТУ В «СНЕЖНОЙ КОРОЛЕВЕ» ОСОБЕННОЙ: В РИТМЕ «СНЕЖНОЙ КОРОЛЕВЫ» ТЕБЯ ЖДЕТ: ЛЮБОВЬ...</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>97008267</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Продавец-консультант (ТЦ Мега)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/97008267</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>От 48000 до 70000 RUR</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2024-04-15T13:05:36+0300</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Казань</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Снежная Королева</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Гибкий график</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Частичная занятость</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Нет опыта</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>ПОЧУВСТВУЙ, КАК БЬЕТСЯ СЕРДЦЕ «СНЕЖНОЙ КОРОЛЕВЫ». ЧТО ДЕЛАЕТ РАБОТУ В «СНЕЖНОЙ КОРОЛЕВЕ» ОСОБЕННОЙ: В РИТМЕ «СНЕЖНОЙ КОРОЛЕВЫ» ТЕБЯ ЖДЕТ: ЛЮБОВЬ...</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>96168179</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Младший аналитик данных</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96168179</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>не указана</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2024-04-15T11:03:10+0300</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Казань</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Кибертех</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Высшее образование (математическое/информационные технологии). Знание SQL, Python, Airflow, Superset, Postgres. Желателен опыт работы в финансовой сфере.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>96990856</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Дизайнер одежды (Nude Story)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96990856</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>не указана</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2024-04-15T11:01:13+0300</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Казань</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Nude Story</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Опыт работы Fashion дизайнером не менее 1 года. Насмотренность, знание последних тенденций и истории моды. Знание материалов, принтов и видов...</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>95389466</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Ведущий дизайнер одежды в премиальный бренд</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/95389466</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>От 200000 RUR</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2024-04-15T10:36:43+0300</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Казань</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>HRP consulting</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Удаленная работа</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Высшее профильное образование. Успешный опыт работы дизайнером по созданию женской одежды. Опыт работы в премиальной сегменте будет существенным преимуществом. </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>96764369</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Менеджер маркетплейс Wildberries</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96764369</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>От 60000 до 120000 RUR</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2024-04-15T00:48:38+0300</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Казань</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Naumova brand</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>От 3 до 6 лет</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>...и множеством способов, как её увеличить. Опыт работы менеджером на WB от 2 лет. Опыт работы с одеждой крайне желателен.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>95220584</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Продавец-консультант спортивной одежды</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/95220584</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>От 40000 до 50000 RUR</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2024-04-14T16:12:45+0300</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Казань</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Магазин одежды Designed For Fitness</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Нет опыта</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Энергичность ,позитивность. Ответственность ,честность. Ориентированность на результат. Если нет опыта ,но есть желание развиваться и зарабатывать ,ждем Вас ,с удовольствием...</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>96004719</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Графический дизайнер</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96004719</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>От 50000 RUR</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2024-04-14T15:41:33+0300</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Казань</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>ТАЙМ</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>работа в Photoshop и CorelDraw.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>94815979</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Менеджер по работе с клиентами / менеджер по продажам</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/94815979</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>От 80000 RUR</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2024-04-14T11:42:04+0300</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Казань</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Элитс</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Сменный график</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>...отрабатывать возражения клиентов. - навыки делового общения. - грамотная речь. - знание CRM и 1с приветствуется. - любовь к моде, эстетике, красивой одежде.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>96635257</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Руководитель IT отдела / Team-lead</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/96635257</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>От 150000 RUR</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2024-04-13T16:10:24+0300</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Казань</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Элитс</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>опыт работы на аналогичной должности от 1 года. - знание и опыт применения PHP 7.4, Laravel, BitrixFramework, SlimFramework, React, SQL...</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>95546856</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Графический дизайнер</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/95546856</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>От 50000 RUR</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2024-04-13T15:13:03+0300</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Казань</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>ТАЙМ</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Полная занятость</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>работа в Photoshop и CorelDraw.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>95785910</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>SMM-менеджер</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/95785910</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>От 25000 RUR</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2024-04-13T12:20:40+0300</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Казань</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Спортивная компания Victory</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Полный день</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Частичная занятость</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>От 1 года до 3 лет</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Опыт работы SMM-менеджером в премиум/люкс проектах. Понимание что такое платформа бренда, зачем она и как с ней работать. </t>
         </is>
       </c>
     </row>
